--- a/stocks/Stocks_002.xlsx
+++ b/stocks/Stocks_002.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00201资本结构" sheetId="7" r:id="rId1"/>
     <sheet name="00205人均盈利" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId3"/>
-    <sheet name="00202盈利能力" sheetId="5" r:id="rId4"/>
-    <sheet name="00202应付债券" sheetId="8" r:id="rId5"/>
-    <sheet name="00202其他" sheetId="6" r:id="rId6"/>
+    <sheet name="00206现金收益" sheetId="10" r:id="rId3"/>
+    <sheet name="00207固定资产" sheetId="12" r:id="rId4"/>
+    <sheet name="00202盈利能力" sheetId="5" r:id="rId5"/>
+    <sheet name="00202应付债券" sheetId="8" r:id="rId6"/>
+    <sheet name="00202其他" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -53,6 +54,210 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zhen Wu</author>
+  </authors>
+  <commentList>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">年报未列出
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">年报未列出
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">年报未列出
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zhen Wu</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>史密斯比较重视现金收益</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>史密斯比较重视现金收益</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">年报未区分增减项目
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>国投累计折旧增加较大,是什么原因?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">比较高的原因是什么?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zhen Wu</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">主要为上海天津本部济南南京青岛的办公大楼建设,其中上海陆家嘴办公大楼最多,为36.8亿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>两河口,湄洲湾,杨房沟锦屏等电站工程.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>主要为待装设备,上海研发中心扩建和上海盛迪研发大楼,以及江苏盛迪和成都盛迪的工程.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>主要为青浦工程项目5.5亿.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>wu</author>
@@ -94,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="88">
   <si>
     <t>兴业银行</t>
   </si>
@@ -338,13 +543,70 @@
   </si>
   <si>
     <t>总薪酬</t>
+  </si>
+  <si>
+    <t>其他薪酬</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>电器</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>美的电器</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>现金收益</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>折旧
+占比</t>
+  </si>
+  <si>
+    <t>固定资产
+折旧增加</t>
+  </si>
+  <si>
+    <t>固定资产</t>
+  </si>
+  <si>
+    <t>酬均利润</t>
+  </si>
+  <si>
+    <t>在建工程</t>
+  </si>
+  <si>
+    <t>固定+在建</t>
+  </si>
+  <si>
+    <t>在建
+占比</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +675,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -434,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -503,11 +772,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -543,25 +823,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -577,15 +838,39 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -604,6 +889,32 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -649,6 +960,62 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -936,73 +1303,73 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H15"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.42578125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.42578125" style="25" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="C1" s="37">
+      <c r="C1" s="30">
         <v>2016</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="45">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="27" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1050,11 +1417,11 @@
         <v>0.93632964748210901</v>
       </c>
       <c r="N3" s="12">
-        <f>(C3+K3)/(C3-D3)</f>
+        <f t="shared" ref="N3:N30" si="0">(C3+K3)/(C3-D3)</f>
         <v>15.705897021993168</v>
       </c>
       <c r="O3" s="12">
-        <f>(L3+D3+K3)/L3</f>
+        <f t="shared" ref="O3:O30" si="1">(L3+D3+K3)/L3</f>
         <v>20.881873807122883</v>
       </c>
     </row>
@@ -1078,37 +1445,37 @@
         <v>123960000000</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G30" si="0">F4/D4</f>
+        <f t="shared" ref="G4:G30" si="2">F4/D4</f>
         <v>2.162790271631174E-2</v>
       </c>
       <c r="H4" s="3">
         <v>63925000000</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I15" si="1">H4+F4</f>
+        <f t="shared" ref="I4:I15" si="3">H4+F4</f>
         <v>187885000000</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" ref="J4:J30" si="2">I4/F4</f>
+        <f t="shared" ref="J4:J30" si="4">I4/F4</f>
         <v>1.5156905453372056</v>
       </c>
       <c r="K4" s="3">
         <v>26000000000</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L30" si="3">B4*E4</f>
+        <f t="shared" ref="L4:L30" si="5">B4*E4</f>
         <v>304832000000</v>
       </c>
       <c r="M4" s="18">
-        <f t="shared" ref="M4:M30" si="4">D4/C4</f>
+        <f t="shared" ref="M4:M30" si="6">D4/C4</f>
         <v>0.94176534429200631</v>
       </c>
       <c r="N4" s="12">
-        <f>(C4+K4)/(C4-D4)</f>
+        <f t="shared" si="0"/>
         <v>17.24526678141136</v>
       </c>
       <c r="O4" s="12">
-        <f>(L4+D4+K4)/L4</f>
+        <f t="shared" si="1"/>
         <v>19.887403553432712</v>
       </c>
     </row>
@@ -1132,37 +1499,37 @@
         <v>80886000000</v>
       </c>
       <c r="G5" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4603131388283229E-2</v>
       </c>
       <c r="H5" s="3">
         <v>78963000000</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>159849000000</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.976225799273051</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>554840000000</v>
       </c>
       <c r="M5" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93212034846375424</v>
       </c>
       <c r="N5" s="12">
-        <f>(C5+K5)/(C5-D5)</f>
+        <f t="shared" si="0"/>
         <v>14.731955414739117</v>
       </c>
       <c r="O5" s="12">
-        <f>(L5+D5+K5)/L5</f>
+        <f t="shared" si="1"/>
         <v>10.982966260543581</v>
       </c>
     </row>
@@ -1186,37 +1553,37 @@
         <v>54708000000</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9884685687991299E-2</v>
       </c>
       <c r="H6" s="3">
         <v>29935000000</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84643000000</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5471777436572347</v>
       </c>
       <c r="K6" s="3">
         <v>20000000000</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>151096000000</v>
       </c>
       <c r="M6" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93154714139540618</v>
       </c>
       <c r="N6" s="12">
-        <f>(C6+K6)/(C6-D6)</f>
+        <f t="shared" si="0"/>
         <v>14.707519871791702</v>
       </c>
       <c r="O6" s="12">
-        <f>(L6+D6+K6)/L6</f>
+        <f t="shared" si="1"/>
         <v>19.341074548631333</v>
       </c>
     </row>
@@ -1240,18 +1607,18 @@
         <v>319634000000</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4426454617332959E-2</v>
       </c>
       <c r="H7" s="3">
         <v>363279000000</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>682913000000</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1365468004029609</v>
       </c>
       <c r="K7" s="3">
@@ -1259,19 +1626,19 @@
         <v>46550000000</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1821239770000</v>
       </c>
       <c r="M7" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.9179209823482487</v>
       </c>
       <c r="N7" s="12">
-        <f>(C7+K7)/(C7-D7)</f>
+        <f t="shared" si="0"/>
         <v>12.206877980257051</v>
       </c>
       <c r="O7" s="12">
-        <f>(L7+D7+K7)/L7</f>
+        <f t="shared" si="1"/>
         <v>13.190954955919944</v>
       </c>
     </row>
@@ -1295,37 +1662,37 @@
         <v>5000113916.4899998</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4113413249429944E-2</v>
       </c>
       <c r="H8" s="3">
         <v>8917100628.8700008</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13917214545.360001</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7833794945075296</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52455960472.310005</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72100206173235759</v>
       </c>
       <c r="N8" s="12">
-        <f>(C8+K8)/(C8-D8)</f>
+        <f t="shared" si="0"/>
         <v>3.5842558773344817</v>
       </c>
       <c r="O8" s="12">
-        <f>(L8+D8+K8)/L8</f>
+        <f t="shared" si="1"/>
         <v>3.7942153888996426</v>
       </c>
     </row>
@@ -1349,37 +1716,37 @@
         <v>267436354.97999999</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5221679884077971E-2</v>
       </c>
       <c r="H9" s="3">
         <v>3583388406.6300001</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3850824761.6100001</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.399032479701502</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41115992083.199997</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22049394336248163</v>
       </c>
       <c r="N9" s="12">
-        <f>(C9+K9)/(C9-D9)</f>
+        <f t="shared" si="0"/>
         <v>1.2828636692235664</v>
       </c>
       <c r="O9" s="12">
-        <f>(L9+D9+K9)/L9</f>
+        <f t="shared" si="1"/>
         <v>1.1438344706199226</v>
       </c>
     </row>
@@ -1403,37 +1770,37 @@
         <v>17125249.989999998</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8093768007299751E-4</v>
       </c>
       <c r="H10" s="3">
         <v>12483060793.200001</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12500186043.190001</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>729.92721568965555</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112265408700</v>
       </c>
       <c r="M10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.48701034407106769</v>
       </c>
       <c r="N10" s="12">
-        <f>(C10+K10)/(C10-D10)</f>
+        <f t="shared" si="0"/>
         <v>1.9493570453953486</v>
       </c>
       <c r="O10" s="12">
-        <f>(L10+D10+K10)/L10</f>
+        <f t="shared" si="1"/>
         <v>1.4004396061892215</v>
       </c>
     </row>
@@ -1457,37 +1824,37 @@
         <v>4098027.6</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0669807620744305E-4</v>
       </c>
       <c r="H11" s="3">
         <v>1053232847.41</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1057330875.01</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>258.00970081558262</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13468589362.799999</v>
       </c>
       <c r="M11" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44873150209625995</v>
       </c>
       <c r="N11" s="12">
-        <f>(C11+K11)/(C11-D11)</f>
+        <f t="shared" si="0"/>
         <v>1.8139980858739644</v>
       </c>
       <c r="O11" s="12">
-        <f>(L11+D11+K11)/L11</f>
+        <f t="shared" si="1"/>
         <v>1.5015106373014977</v>
       </c>
     </row>
@@ -1511,37 +1878,37 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>3013184683.6500001</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3013184683.6500001</v>
       </c>
       <c r="J12" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>141105801004.13998</v>
       </c>
-      <c r="M12" s="42">
-        <f t="shared" si="4"/>
+      <c r="M12" s="35">
+        <f t="shared" si="6"/>
         <v>0.10158135879476692</v>
       </c>
       <c r="N12" s="12">
-        <f>(C12+K12)/(C12-D12)</f>
+        <f t="shared" si="0"/>
         <v>1.113066842266869</v>
       </c>
       <c r="O12" s="12">
-        <f>(L12+D12+K12)/L12</f>
+        <f t="shared" si="1"/>
         <v>1.0103161374049907</v>
       </c>
     </row>
@@ -1565,37 +1932,37 @@
         <v>27831179</v>
       </c>
       <c r="G13" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.8957484929205171E-3</v>
       </c>
       <c r="H13" s="13">
         <v>1337618840</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1365450019</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49.061881963390768</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22325562480</v>
       </c>
       <c r="M13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2713889767982382</v>
       </c>
       <c r="N13" s="12">
-        <f>(C13+K13)/(C13-D13)</f>
+        <f t="shared" si="0"/>
         <v>1.3724744317011068</v>
       </c>
       <c r="O13" s="12">
-        <f>(L13+D13+K13)/L13</f>
+        <f t="shared" si="1"/>
         <v>1.1401350262866927</v>
       </c>
     </row>
@@ -1619,37 +1986,37 @@
         <v>16867660.899999999</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6163226806795188E-3</v>
       </c>
       <c r="H14" s="3">
         <v>2529877805.4299998</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2546745466.3299999</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150.9839142148038</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67784884689.840004</v>
       </c>
       <c r="M14" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18644102378044516</v>
       </c>
       <c r="N14" s="12">
-        <f>(C14+K14)/(C14-D14)</f>
+        <f t="shared" si="0"/>
         <v>1.2291671891407296</v>
       </c>
       <c r="O14" s="12">
-        <f>(L14+D14+K14)/L14</f>
+        <f t="shared" si="1"/>
         <v>1.0376101722281474</v>
       </c>
     </row>
@@ -1674,37 +2041,37 @@
         <v>25467055.010000002</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0532165259472433E-3</v>
       </c>
       <c r="H15" s="3">
         <v>5861999287.2399998</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5887466342.25</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>231.1797080556901</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70775525191.800003</v>
       </c>
       <c r="M15" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29426729716105643</v>
       </c>
       <c r="N15" s="12">
-        <f>(C15+K15)/(C15-D15)</f>
+        <f t="shared" si="0"/>
         <v>1.4169670697947119</v>
       </c>
       <c r="O15" s="12">
-        <f>(L15+D15+K15)/L15</f>
+        <f t="shared" si="1"/>
         <v>1.0887760506785749</v>
       </c>
     </row>
@@ -1716,30 +2083,30 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M16" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="12" t="e">
-        <f>(C16+K16)/(C16-D16)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="12" t="e">
-        <f>(L16+D16+K16)/L16</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1751,30 +2118,30 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M17" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="12" t="e">
-        <f>(C17+K17)/(C17-D17)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="12" t="e">
-        <f>(L17+D17+K17)/L17</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1786,30 +2153,30 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M18" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="12" t="e">
-        <f>(C18+K18)/(C18-D18)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="12" t="e">
-        <f>(L18+D18+K18)/L18</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1821,30 +2188,30 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M19" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="12" t="e">
-        <f>(C19+K19)/(C19-D19)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="12" t="e">
-        <f>(L19+D19+K19)/L19</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1856,30 +2223,30 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M20" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="12" t="e">
-        <f>(C20+K20)/(C20-D20)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="12" t="e">
-        <f>(L20+D20+K20)/L20</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1891,30 +2258,30 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M21" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="12" t="e">
-        <f>(C21+K21)/(C21-D21)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="12" t="e">
-        <f>(L21+D21+K21)/L21</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1926,30 +2293,30 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M22" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="12" t="e">
-        <f>(C22+K22)/(C22-D22)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="12" t="e">
-        <f>(L22+D22+K22)/L22</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1961,30 +2328,30 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="12" t="e">
-        <f>(C23+K23)/(C23-D23)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="12" t="e">
-        <f>(L23+D23+K23)/L23</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1996,30 +2363,30 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M24" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="12" t="e">
-        <f>(C24+K24)/(C24-D24)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="12" t="e">
-        <f>(L24+D24+K24)/L24</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2031,30 +2398,30 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M25" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="12" t="e">
-        <f>(C25+K25)/(C25-D25)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="12" t="e">
-        <f>(L25+D25+K25)/L25</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2066,30 +2433,30 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M26" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="12" t="e">
-        <f>(C26+K26)/(C26-D26)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="12" t="e">
-        <f>(L26+D26+K26)/L26</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2101,30 +2468,30 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M27" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="12" t="e">
-        <f>(C27+K27)/(C27-D27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="12" t="e">
-        <f>(L27+D27+K27)/L27</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2136,30 +2503,30 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M28" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="12" t="e">
-        <f>(C28+K28)/(C28-D28)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="12" t="e">
-        <f>(L28+D28+K28)/L28</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2171,30 +2538,30 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M29" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="12" t="e">
-        <f>(C29+K29)/(C29-D29)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="12" t="e">
-        <f>(L29+D29+K29)/L29</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2206,41 +2573,41 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="12" t="e">
-        <f>(C30+K30)/(C30-D30)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="12" t="e">
-        <f>(L30+D30+K30)/L30</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:O49">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" bottom="1" rank="30"/>
+    <cfRule type="top10" dxfId="21" priority="1" percent="1" bottom="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2249,391 +2616,1996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="43">
+    <row r="1" spans="1:11">
+      <c r="C1" s="38">
         <v>2016</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="I2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="J2" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>69975000000</v>
       </c>
-      <c r="C3" s="32">
+      <c r="D3" s="3">
         <v>52832</v>
       </c>
-      <c r="D3" s="32">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>H3-E3-F3</f>
         <v>21107000000</v>
       </c>
-      <c r="E3" s="32">
-        <v>0</v>
-      </c>
-      <c r="F3" s="32">
-        <f>D3+E3</f>
+      <c r="H3" s="3">
         <v>21107000000</v>
       </c>
-      <c r="G3" s="32">
-        <f>F3/C3</f>
+      <c r="I3" s="3">
+        <f>H3/D3</f>
         <v>399511.65960024227</v>
       </c>
-      <c r="H3">
-        <f>B3/C3</f>
+      <c r="J3" s="3">
+        <f>C3/D3</f>
         <v>1324481.3749242884</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="K3" s="13">
+        <f>C3/H3</f>
+        <v>3.3152508646420618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>63925000000</v>
       </c>
-      <c r="C4" s="32">
+      <c r="D4" s="3">
         <v>56236</v>
       </c>
-      <c r="D4" s="32">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G16" si="0">H4-E4-F4</f>
         <v>19863000000</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <f t="shared" ref="F4:F15" si="0">D4+E4</f>
+      <c r="H4" s="3">
         <v>19863000000</v>
       </c>
-      <c r="G4" s="32">
-        <f t="shared" ref="G4:G15" si="1">F4/C4</f>
+      <c r="I4" s="3">
+        <f>H4/D4</f>
         <v>353207.90952414821</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H15" si="2">B4/C4</f>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J19" si="1">C4/D4</f>
         <v>1136727.3632548545</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K19" si="2">C4/H4</f>
+        <v>3.2182953229622915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>78963000000</v>
       </c>
-      <c r="C5" s="32">
+      <c r="D5" s="3">
         <v>70461</v>
       </c>
-      <c r="D5" s="32">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>31284000000</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
-        <f>D5+E5</f>
+      <c r="H5" s="3">
         <v>31284000000</v>
       </c>
-      <c r="G5" s="32">
-        <f t="shared" si="1"/>
+      <c r="I5" s="3">
+        <f>H5/D5</f>
         <v>443990.29250223527</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
         <v>1120662.4941456977</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="K5" s="13">
+        <f t="shared" si="2"/>
+        <v>2.5240698120444955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>29935000000</v>
       </c>
-      <c r="F6" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="3">
+        <v>36885</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>12896000000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12896000000</v>
+      </c>
+      <c r="I6" s="3">
+        <f>H6/D6</f>
+        <v>349627.2197370205</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>811576.5216212552</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="2"/>
+        <v>2.3212624069478909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>363279000000</v>
       </c>
-      <c r="F7" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D7" s="3">
+        <v>461749</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <f>H7/D7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>786745.61287625961</v>
+      </c>
+      <c r="K7" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>8917100628.8700008</v>
       </c>
-      <c r="F8" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="3">
+        <v>9028</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1144846.05</v>
+      </c>
+      <c r="F8" s="3">
+        <v>535267352.51999998</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>1710894547.5799999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2247306746.1500001</v>
+      </c>
+      <c r="I8" s="3">
+        <f>H8/D8</f>
+        <v>248926.31215662384</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>987716.0643409394</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="2"/>
+        <v>3.9679054246361503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>3583388406.6300001</v>
       </c>
-      <c r="F9" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
+      <c r="D9" s="3">
+        <v>880</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12203773.970000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>36824819.299999997</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>84727363.850000009</v>
+      </c>
+      <c r="H9" s="3">
+        <v>133755957.12</v>
+      </c>
+      <c r="I9" s="3">
+        <f>H9/D9</f>
+        <v>151995.40581818181</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>4072032.2802613638</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="2"/>
+        <v>26.790495793881842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>12483060793.200001</v>
       </c>
-      <c r="F10" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D10" s="3">
+        <v>71617</v>
+      </c>
+      <c r="E10" s="3">
+        <v>218792034.41</v>
+      </c>
+      <c r="F10" s="3">
+        <v>704072924.90999997</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>5917218221.1100006</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6840083180.4300003</v>
+      </c>
+      <c r="I10" s="3">
+        <f>H10/D10</f>
+        <v>95509.211226803702</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>174303.03968610807</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8249866944476625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>1053232847.41</v>
       </c>
-      <c r="F11" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
+      <c r="D11" s="3">
+        <v>16949</v>
+      </c>
+      <c r="E11" s="3">
+        <v>273472163.18000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>794418892.36000001</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>736896332.75999987</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1804787388.3</v>
+      </c>
+      <c r="I11" s="3">
+        <f>H11/D11</f>
+        <v>106483.41426042834</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>62141.297268865419</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.58357724252610232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>3013184683.6500001</v>
       </c>
-      <c r="F12" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D12" s="3">
+        <v>12653</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>86211163.670000002</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1220042770.05</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1306253933.72</v>
+      </c>
+      <c r="I12" s="3">
+        <f>H12/D12</f>
+        <v>103236.69751995575</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>238139.9418043152</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="2"/>
+        <v>2.3067373087780392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="13">
+      <c r="C13" s="13">
         <v>1337618840</v>
       </c>
-      <c r="F13" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="3">
+        <v>4627</v>
+      </c>
+      <c r="E13" s="3">
+        <v>258845366</v>
+      </c>
+      <c r="F13" s="3">
+        <v>98464931</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>78310923</v>
+      </c>
+      <c r="H13" s="3">
+        <v>435621220</v>
+      </c>
+      <c r="I13" s="3">
+        <f>H13/D13</f>
+        <v>94147.659390533823</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>289089.87248757295</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="2"/>
+        <v>3.0706007388712608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>2529877805.4299998</v>
       </c>
-      <c r="C14" s="32">
+      <c r="D14" s="3">
         <v>2009</v>
       </c>
-      <c r="D14" s="14">
+      <c r="E14" s="3">
+        <v>64480618.369999997</v>
+      </c>
+      <c r="F14" s="3">
         <v>187464663.09</v>
       </c>
-      <c r="E14" s="14">
-        <v>64480618.369999997</v>
-      </c>
-      <c r="F14" s="32">
-        <f t="shared" si="0"/>
-        <v>251945281.46000001</v>
-      </c>
-      <c r="G14" s="32">
-        <f t="shared" si="1"/>
-        <v>125408.30336485815</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>40390025.840000004</v>
+      </c>
+      <c r="H14" s="3">
+        <v>292335307.30000001</v>
+      </c>
+      <c r="I14" s="3">
+        <f>H14/D14</f>
+        <v>145512.84584370334</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
         <v>1259272.1779143852</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="K14" s="13">
+        <f t="shared" si="2"/>
+        <v>8.6540275575874634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>5861999287.2399998</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="3">
         <v>50431</v>
       </c>
-      <c r="D15" s="14">
+      <c r="E15" s="3">
+        <v>770971885.67999995</v>
+      </c>
+      <c r="F15" s="3">
         <v>482653948.47000003</v>
       </c>
-      <c r="E15" s="14">
-        <v>770971885.67999995</v>
-      </c>
-      <c r="F15" s="32">
-        <f t="shared" si="0"/>
-        <v>1253625834.1500001</v>
-      </c>
-      <c r="G15" s="32">
-        <f t="shared" si="1"/>
-        <v>24858.238665701654</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>2222039254.6199999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3475665088.77</v>
+      </c>
+      <c r="I15" s="3">
+        <f>H15/D15</f>
+        <v>68919.218115246578</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
         <v>116238.014063572</v>
       </c>
+      <c r="K15" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6865834703637965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18531190076.599998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>71610</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>5756088826.04</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5756088826.04</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" ref="I16:I19" si="3">H16/D16</f>
+        <v>80381.075632453561</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>258779.3614942047</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="2"/>
+        <v>3.2194065513316357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18914603000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>96418</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <f>H17-E17-F17</f>
+        <v>10675182000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10675182000</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>110717.72905474082</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>196172.9448858097</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7718295575663254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="H29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A15">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A1:K1048576">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B15">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="top10" dxfId="19" priority="4" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="top10" dxfId="18" priority="3" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J19">
+    <cfRule type="top10" dxfId="17" priority="2" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="top10" dxfId="16" priority="1" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" s="38">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="44">
+        <v>2015</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3">
+        <v>69975000000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1791000000</v>
+      </c>
+      <c r="E3" s="18">
+        <f>D3/F3</f>
+        <v>2.4956107348883871E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3+D3</f>
+        <v>71766000000</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="18" t="e">
+        <f>H3/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="3">
+        <f>G3+H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>63925000000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1422000000</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" ref="E4:E24" si="0">D4/F4</f>
+        <v>2.1760754127963029E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4+D4</f>
+        <v>65347000000</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="18" t="e">
+        <f t="shared" ref="I4:I27" si="1">H4/J4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J27" si="2">G4+H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>78963000000</v>
+      </c>
+      <c r="D5" s="3">
+        <f>(3567)*1000000</f>
+        <v>3567000000</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>4.3220647037440933E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5+D5</f>
+        <v>82530000000</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>29935000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>848000000</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>2.7547672416593574E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <f>C6+D6</f>
+        <v>30783000000</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>363279000000</v>
+      </c>
+      <c r="D7" s="3">
+        <f>(3567+286)*1000000</f>
+        <v>3853000000</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0494862883104715E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>C7+D7</f>
+        <v>367132000000</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8917100628.8700008</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5795354848.5900002</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D8/F8</f>
+        <v>0.39390806364503106</v>
+      </c>
+      <c r="F8" s="3">
+        <f>C8+D8</f>
+        <v>14712455477.460001</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3583388406.6300001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>206832434.94999999</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>5.4570022063352742E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>C9+D9</f>
+        <v>3790220841.5799999</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12483060793.200001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2468587771.9200001</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.16510472147391511</v>
+      </c>
+      <c r="F10" s="3">
+        <f>C10+D10</f>
+        <v>14951648565.120001</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6568410000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5308825000</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.44697482200192218</v>
+      </c>
+      <c r="F11" s="3">
+        <f>C11+D11</f>
+        <v>11877235000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3794986000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4485620000</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.54170189959527115</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>8280606000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1053232847.41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>489862083.69</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.31745427570084772</v>
+      </c>
+      <c r="F12" s="3">
+        <f>C12+D12</f>
+        <v>1543094931.0999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>786206574.79999995</v>
+      </c>
+      <c r="H12" s="3">
+        <v>453570487.77999997</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="1"/>
+        <v>0.3658484266809317</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>1239777062.5799999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3013184683.6500001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>502819788.72000003</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.14300885925240847</v>
+      </c>
+      <c r="F13" s="3">
+        <f>C13+D13</f>
+        <v>3516004472.3699999</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1337618840</v>
+      </c>
+      <c r="D14" s="3">
+        <v>197779010</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.12881287413552128</v>
+      </c>
+      <c r="F14" s="3">
+        <f>C14+D14</f>
+        <v>1535397850</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1388159865</v>
+      </c>
+      <c r="H14" s="3">
+        <v>163322504</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="1"/>
+        <v>0.10526868191564992</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>1551482369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2529877805.4299998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>149634792.63999999</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>5.5844034003713579E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f>C15+D15</f>
+        <v>2679512598.0699997</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5861999287.2399998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>870560623.45000005</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.12930603440568253</v>
+      </c>
+      <c r="F16" s="3">
+        <f>C16+D16</f>
+        <v>6732559910.6899996</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18531190076.599998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1713551686.1300001</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>8.4641814956839839E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>C17+D17</f>
+        <v>20244741762.73</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18914603000</v>
+      </c>
+      <c r="D18" s="3">
+        <f>(2898537+8521)*1000</f>
+        <v>2907058000</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.13321891491211416</v>
+      </c>
+      <c r="F18" s="3">
+        <f>C18+D18</f>
+        <v>21821661000</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3">
+        <v>290570545.68000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>38368034.710000001</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11664194167953679</v>
+      </c>
+      <c r="F19" s="3">
+        <f>C19+D19</f>
+        <v>328938580.38999999</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="J30" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:F1048576">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="14" priority="8" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J2">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="top10" dxfId="12" priority="6" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G24">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J30">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I28">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I28">
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H28">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" s="39">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" s="34" customFormat="1" ht="30">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3">
+        <v>21605000000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <f>D3/F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3+D3</f>
+        <v>21605000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16279000000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7170000000</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" ref="E4:E19" si="0">D4/F4</f>
+        <v>0.30576996886860847</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F19" si="1">C4+D4</f>
+        <v>23449000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43068000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>43068000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8316000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>8316000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>220651000000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>22968000000</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>9.4278360883182352E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>243619000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>126883562835.75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>49891194159.050003</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.28223030825898748</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>176774756994.79999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3482679784.7800002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1508284.62</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>4.3289414634260445E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>3484188069.4000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>24714953082.84</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4859178711.0200005</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.16430503336124422</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>29574131793.860001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>37483211000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4565424000</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.10857484434393649</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>42048635000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4101318985.8299999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>74165807.739999995</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.7762202811565968E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>4175484793.5699997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1657987834.3399999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>904186132.61000001</v>
+      </c>
+      <c r="E13" s="18">
+        <f>D13/F13</f>
+        <v>0.35289802498709294</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>2562173966.9499998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4683187493</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1346281737</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.22328362342434577</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>6029469230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1178787713.6300001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>183870575.50999999</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>0.13493520494125072</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1362658289.1400001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11574188890.190001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>532599950.74000001</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>4.3991842736978599E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>12106788840.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
+        <v>17681655478.060001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>581543756.84000003</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>3.1842381466698391E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>18263199234.900002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3">
+        <v>21056791000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>580729000</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>2.6838981546868586E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>21637520000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3">
+        <v>206527861.86000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>584874097.07000005</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.73903544269813015</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>791401958.93000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:F1048576 A1:C1">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="top10" dxfId="10" priority="1" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
@@ -2655,32 +4627,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
@@ -2744,29 +4716,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="41" customFormat="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:20" s="34" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
@@ -4403,7 +6375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4415,7 +6387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
@@ -4451,13 +6423,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
@@ -4502,13 +6474,13 @@
       <c r="R2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="16"/>
@@ -4516,24 +6488,24 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="25" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
       <c r="R3" s="20"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>

--- a/stocks/Stocks_002.xlsx
+++ b/stocks/Stocks_002.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" tabRatio="815" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="00201资本结构" sheetId="7" r:id="rId1"/>
     <sheet name="00205人均盈利" sheetId="9" r:id="rId2"/>
     <sheet name="00206现金收益" sheetId="10" r:id="rId3"/>
     <sheet name="00207固定资产" sheetId="12" r:id="rId4"/>
-    <sheet name="00202盈利能力" sheetId="5" r:id="rId5"/>
-    <sheet name="00202应付债券" sheetId="8" r:id="rId6"/>
-    <sheet name="00202其他" sheetId="6" r:id="rId7"/>
+    <sheet name="其他--盈利能力" sheetId="5" r:id="rId5"/>
+    <sheet name="00202其他" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,20 +27,77 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Zhen Wu</author>
+    <author>wu</author>
   </authors>
   <commentList>
-    <comment ref="F15" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="8"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>利息支出</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>利息支出有两项,一项在一级,一项在财务费用中</t>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">财务费用中的利息支出
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>年报未列出财务费用中的明细</t>
         </r>
       </text>
     </comment>
@@ -56,214 +108,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Zhen Wu</author>
-  </authors>
-  <commentList>
-    <comment ref="E12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">年报未列出
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">年报未列出
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">年报未列出
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Zhen Wu</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>史密斯比较重视现金收益</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>史密斯比较重视现金收益</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">年报未区分增减项目
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>国投累计折旧增加较大,是什么原因?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">比较高的原因是什么?
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Zhen Wu</author>
-  </authors>
-  <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">主要为上海天津本部济南南京青岛的办公大楼建设,其中上海陆家嘴办公大楼最多,为36.8亿
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>两河口,湄洲湾,杨房沟锦屏等电站工程.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>主要为待装设备,上海研发中心扩建和上海盛迪研发大楼,以及江苏盛迪和成都盛迪的工程.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>主要为青浦工程项目5.5亿.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
     <author>wu</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,23 +122,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">利息支出：是否为借款利息？是否包括了债券利息？
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>明确此利息支出的明确内涵，为何如此之高？</t>
+          <t>使用应付职工薪酬列示中本期减少</t>
         </r>
       </text>
     </comment>
@@ -299,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="88">
   <si>
     <t>兴业银行</t>
   </si>
@@ -513,14 +345,6 @@
 倍数</t>
   </si>
   <si>
-    <t>市值
-杠杆率</t>
-  </si>
-  <si>
-    <t>净值
-杠杆率</t>
-  </si>
-  <si>
     <t>庐州老窖</t>
   </si>
   <si>
@@ -601,16 +425,25 @@
   <si>
     <t>比亚迪</t>
   </si>
+  <si>
+    <t>承德露露</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值
+率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -618,7 +451,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -626,7 +459,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -635,7 +468,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -643,13 +476,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -663,24 +496,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -703,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -772,22 +611,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -826,9 +654,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -837,12 +662,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -856,21 +678,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -896,6 +720,16 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -903,6 +737,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -917,6 +761,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -943,6 +807,21 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -950,11 +829,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -962,11 +836,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -974,11 +843,25 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -989,9 +872,499 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1292,1322 +1665,1269 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.42578125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21">
-      <c r="C1" s="30">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="D1" s="29">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45">
+    <row r="2" spans="1:15" ht="40.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>60</v>
+      <c r="O2" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="12">
+      <c r="C3" s="12">
         <v>12.76</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>5857263000000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>5484329000000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>21618000000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>106694000000</v>
       </c>
-      <c r="G3" s="18">
-        <f>F3/D3</f>
+      <c r="H3" s="18">
+        <f>G3/E3</f>
         <v>1.9454339810758982E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>69975000000</v>
       </c>
-      <c r="I3" s="3">
-        <f>H3+F3</f>
+      <c r="J3" s="3">
+        <f>I3+G3</f>
         <v>176669000000</v>
       </c>
-      <c r="J3" s="12">
-        <f>I3/F3</f>
+      <c r="K3" s="12">
+        <f>IF(G3=0,1000,J3/G3)</f>
         <v>1.6558475640617092</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <f>B3*E3</f>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>C3*F3</f>
         <v>275845680000</v>
       </c>
-      <c r="M3" s="18">
-        <f>D3/C3</f>
+      <c r="N3" s="18">
+        <f>E3/D3</f>
         <v>0.93632964748210901</v>
       </c>
-      <c r="N3" s="12">
-        <f t="shared" ref="N3:N30" si="0">(C3+K3)/(C3-D3)</f>
-        <v>15.705897021993168</v>
-      </c>
-      <c r="O3" s="12">
-        <f t="shared" ref="O3:O30" si="1">(L3+D3+K3)/L3</f>
-        <v>20.881873807122883</v>
+      <c r="O3" s="18">
+        <f>M3/(M3+E3+L3)</f>
+        <v>4.7888422717069404E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>6085895000000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>5731485000000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>19052000000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>123960000000</v>
       </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:G30" si="2">F4/D4</f>
+      <c r="H4" s="18">
+        <f>G4/E4</f>
         <v>2.162790271631174E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>63925000000</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I15" si="3">H4+F4</f>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J20" si="0">I4+G4</f>
         <v>187885000000</v>
       </c>
-      <c r="J4" s="12">
-        <f t="shared" ref="J4:J30" si="4">I4/F4</f>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K20" si="1">IF(G4=0,1000,J4/G4)</f>
         <v>1.5156905453372056</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>26000000000</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L30" si="5">B4*E4</f>
+      <c r="M4" s="3">
+        <f>C4*F4</f>
         <v>304832000000</v>
       </c>
-      <c r="M4" s="18">
-        <f t="shared" ref="M4:M30" si="6">D4/C4</f>
+      <c r="N4" s="18">
+        <f>E4/D4</f>
         <v>0.94176534429200631</v>
       </c>
-      <c r="N4" s="12">
-        <f t="shared" si="0"/>
-        <v>17.24526678141136</v>
-      </c>
-      <c r="O4" s="12">
-        <f t="shared" si="1"/>
-        <v>19.887403553432712</v>
+      <c r="O4" s="18">
+        <f t="shared" ref="O4:O20" si="2">M4/(M4+E4+L4)</f>
+        <v>5.028308483373601E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="C5" s="13">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>5942311000000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>5538949000000</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>25220000000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>80886000000</v>
       </c>
-      <c r="G5" s="18">
+      <c r="H5" s="18">
+        <f>G5/E5</f>
+        <v>1.4603131388283229E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>78963000000</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>159849000000</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.976225799273051</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <f>C5*F5</f>
+        <v>554840000000</v>
+      </c>
+      <c r="N5" s="18">
+        <f>E5/D5</f>
+        <v>0.93212034846375424</v>
+      </c>
+      <c r="O5" s="18">
         <f t="shared" si="2"/>
-        <v>1.4603131388283229E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>78963000000</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="3"/>
-        <v>159849000000</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="4"/>
-        <v>1.976225799273051</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="5"/>
-        <v>554840000000</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="6"/>
-        <v>0.93212034846375424</v>
-      </c>
-      <c r="N5" s="12">
-        <f t="shared" si="0"/>
-        <v>14.731955414739117</v>
-      </c>
-      <c r="O5" s="12">
-        <f t="shared" si="1"/>
-        <v>10.982966260543581</v>
+        <v>9.1050083946129415E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="C6" s="13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>2953434000000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>2751263000000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>17170000000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>54708000000</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H6" s="18">
+        <f>G6/E6</f>
+        <v>1.9884685687991299E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>29935000000</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>84643000000</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5471777436572347</v>
+      </c>
+      <c r="L6" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="M6" s="3">
+        <f>C6*F6</f>
+        <v>151096000000</v>
+      </c>
+      <c r="N6" s="18">
+        <f>E6/D6</f>
+        <v>0.93154714139540618</v>
+      </c>
+      <c r="O6" s="18">
         <f t="shared" si="2"/>
-        <v>1.9884685687991299E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>29935000000</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="3"/>
-        <v>84643000000</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="4"/>
-        <v>1.5471777436572347</v>
-      </c>
-      <c r="K6" s="3">
-        <v>20000000000</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="5"/>
-        <v>151096000000</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="6"/>
-        <v>0.93154714139540618</v>
-      </c>
-      <c r="N6" s="12">
-        <f t="shared" si="0"/>
-        <v>14.707519871791702</v>
-      </c>
-      <c r="O6" s="12">
-        <f t="shared" si="1"/>
-        <v>19.341074548631333</v>
+        <v>5.1703435477982E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13">
+      <c r="C7" s="13">
         <v>5.1100000000000003</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>24137265000000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>22156102000000</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>356407000000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>319634000000</v>
       </c>
-      <c r="G7" s="18">
-        <f t="shared" si="2"/>
+      <c r="H7" s="18">
+        <f>G7/E7</f>
         <v>1.4426454617332959E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>363279000000</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="3"/>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
         <v>682913000000</v>
       </c>
-      <c r="J7" s="12">
-        <f t="shared" si="4"/>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
         <v>2.1365468004029609</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <f>12000000000+34550000000</f>
         <v>46550000000</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" si="5"/>
+      <c r="M7" s="3">
+        <f>C7*F7</f>
         <v>1821239770000</v>
       </c>
-      <c r="M7" s="18">
-        <f t="shared" si="6"/>
+      <c r="N7" s="18">
+        <f>E7/D7</f>
         <v>0.9179209823482487</v>
       </c>
-      <c r="N7" s="12">
-        <f t="shared" si="0"/>
-        <v>12.206877980257051</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" si="1"/>
-        <v>13.190954955919944</v>
+      <c r="O7" s="18">
+        <f t="shared" si="2"/>
+        <v>7.5809522763263762E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="13">
+      <c r="C8" s="13">
         <v>7.73</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>203291030318.37</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>146573251991.23999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6786023347</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000113916.4899998</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H8" s="18">
+        <f>G8/E8</f>
+        <v>3.4113413249429944E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8917100628.8700008</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>13917214545.360001</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>2.7833794945075296</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f>C8*F8</f>
+        <v>52455960472.310005</v>
+      </c>
+      <c r="N8" s="18">
+        <f>E8/D8</f>
+        <v>0.72100206173235759</v>
+      </c>
+      <c r="O8" s="18">
         <f t="shared" si="2"/>
-        <v>3.4113413249429944E-2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>8917100628.8700008</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="3"/>
-        <v>13917214545.360001</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="4"/>
-        <v>2.7833794945075296</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="5"/>
-        <v>52455960472.310005</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="6"/>
-        <v>0.72100206173235759</v>
-      </c>
-      <c r="N8" s="12">
-        <f t="shared" si="0"/>
-        <v>3.5842558773344817</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="1"/>
-        <v>3.7942153888996426</v>
+        <v>0.26355910181736131</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13">
+      <c r="C9" s="13">
         <v>9.34</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>26821131071.060001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>5913896955.3000002</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4402140480</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>267436354.97999999</v>
       </c>
-      <c r="G9" s="18">
+      <c r="H9" s="18">
+        <f>G9/E9</f>
+        <v>4.5221679884077971E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3583388406.6300001</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>3850824761.6100001</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>14.399032479701502</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f>C9*F9</f>
+        <v>41115992083.199997</v>
+      </c>
+      <c r="N9" s="18">
+        <f>E9/D9</f>
+        <v>0.22049394336248163</v>
+      </c>
+      <c r="O9" s="18">
         <f t="shared" si="2"/>
-        <v>4.5221679884077971E-2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3583388406.6300001</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
-        <v>3850824761.6100001</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="4"/>
-        <v>14.399032479701502</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="5"/>
-        <v>41115992083.199997</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="6"/>
-        <v>0.22049394336248163</v>
-      </c>
-      <c r="N9" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2828636692235664</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1438344706199226</v>
+        <v>0.87425237277386048</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="C10" s="13">
         <v>12.3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>92309160566.699997</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>44955516048.5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9127269000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17125249.989999998</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10" s="18">
+        <f>G10/E10</f>
+        <v>3.8093768007299751E-4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12483060793.200001</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>12500186043.190001</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="1"/>
+        <v>729.92721568965555</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f>C10*F10</f>
+        <v>112265408700</v>
+      </c>
+      <c r="N10" s="18">
+        <f>E10/D10</f>
+        <v>0.48701034407106769</v>
+      </c>
+      <c r="O10" s="18">
         <f t="shared" si="2"/>
-        <v>3.8093768007299751E-4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>12483060793.200001</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="3"/>
-        <v>12500186043.190001</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="4"/>
-        <v>729.92721568965555</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="5"/>
-        <v>112265408700</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="6"/>
-        <v>0.48701034407106769</v>
-      </c>
-      <c r="N10" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9493570453953486</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="1"/>
-        <v>1.4004396061892215</v>
+        <v>0.71406149581925227</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="13">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3">
+        <v>145070778000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>89661415000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2728143000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1923874000</v>
+      </c>
+      <c r="H11" s="18">
+        <f>G11/E11</f>
+        <v>2.1457100582229268E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6568410000</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>8492284000</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="1"/>
+        <v>4.4141580997508152</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f>C11*F11</f>
+        <v>133679007000</v>
+      </c>
+      <c r="N11" s="18">
+        <f>E11/D11</f>
+        <v>0.61805289966805033</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.5985437199541066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
+      <c r="C12" s="13">
         <v>5.3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D12" s="3">
         <v>15052744911.68</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E12" s="3">
         <v>6754640834.8900003</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F12" s="3">
         <v>2541243276</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G12" s="3">
         <v>4098027.6</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H12" s="18">
+        <f>G12/E12</f>
+        <v>6.0669807620744305E-4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1053232847.41</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>1057330875.01</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="1"/>
+        <v>258.00970081558262</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <f>C12*F12</f>
+        <v>13468589362.799999</v>
+      </c>
+      <c r="N12" s="18">
+        <f>E12/D12</f>
+        <v>0.44873150209625995</v>
+      </c>
+      <c r="O12" s="18">
         <f t="shared" si="2"/>
-        <v>6.0669807620744305E-4</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1053232847.41</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="3"/>
-        <v>1057330875.01</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="4"/>
-        <v>258.00970081558262</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="5"/>
-        <v>13468589362.799999</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="6"/>
-        <v>0.44873150209625995</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="0"/>
-        <v>1.8139980858739644</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="1"/>
-        <v>1.5015106373014977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="21">
-        <v>60.11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14330058674.85</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1455666831.8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2347459674</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3013184683.6500001</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="3"/>
-        <v>3013184683.6500001</v>
-      </c>
-      <c r="J12" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="5"/>
-        <v>141105801004.13998</v>
-      </c>
-      <c r="M12" s="35">
-        <f t="shared" si="6"/>
-        <v>0.10158135879476692</v>
-      </c>
-      <c r="N12" s="12">
-        <f t="shared" si="0"/>
-        <v>1.113066842266869</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="1"/>
-        <v>1.0103161374049907</v>
+        <v>0.66599594778575244</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="21">
-        <v>32.57</v>
-      </c>
-      <c r="C13" s="3">
-        <v>11528077971</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="21">
+        <v>60.11</v>
       </c>
       <c r="D13" s="3">
-        <v>3128593285</v>
+        <v>14330058674.85</v>
       </c>
       <c r="E13" s="3">
-        <v>685464000</v>
+        <v>1455666831.8</v>
       </c>
       <c r="F13" s="3">
-        <v>27831179</v>
-      </c>
-      <c r="G13" s="18">
+        <v>2347459674</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <f>G13/E13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3013184683.6500001</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>3013184683.6500001</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <f>C13*F13</f>
+        <v>141105801004.13998</v>
+      </c>
+      <c r="N13" s="34">
+        <f>E13/D13</f>
+        <v>0.10158135879476692</v>
+      </c>
+      <c r="O13" s="18">
         <f t="shared" si="2"/>
-        <v>8.8957484929205171E-3</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1337618840</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="3"/>
-        <v>1365450019</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="4"/>
-        <v>49.061881963390768</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="5"/>
-        <v>22325562480</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="6"/>
-        <v>0.2713889767982382</v>
-      </c>
-      <c r="N13" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3724744317011068</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1401350262866927</v>
+        <v>0.98978919862500869</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="12">
-        <v>48.34</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13674035552.67</v>
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="21">
+        <v>32.57</v>
       </c>
       <c r="D14" s="3">
-        <v>2549401187.6500001</v>
+        <v>11528077971</v>
       </c>
       <c r="E14" s="3">
-        <v>1402252476</v>
+        <v>3128593285</v>
       </c>
       <c r="F14" s="3">
-        <v>16867660.899999999</v>
-      </c>
-      <c r="G14" s="18">
+        <v>685464000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>27831179</v>
+      </c>
+      <c r="H14" s="18">
+        <f>G14/E14</f>
+        <v>8.8957484929205171E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1337618840</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>1365450019</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="1"/>
+        <v>49.061881963390768</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f>C14*F14</f>
+        <v>22325562480</v>
+      </c>
+      <c r="N14" s="18">
+        <f>E14/D14</f>
+        <v>0.2713889767982382</v>
+      </c>
+      <c r="O14" s="18">
         <f t="shared" si="2"/>
-        <v>6.6163226806795188E-3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2529877805.4299998</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="3"/>
-        <v>2546745466.3299999</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="4"/>
-        <v>150.9839142148038</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="5"/>
-        <v>67784884689.840004</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="6"/>
-        <v>0.18644102378044516</v>
-      </c>
-      <c r="N14" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2291671891407296</v>
-      </c>
-      <c r="O14" s="12">
-        <f t="shared" si="1"/>
-        <v>1.0376101722281474</v>
+        <v>0.87708909641772992</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="12">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12">
+        <v>48.34</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13674035552.67</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2549401187.6500001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1402252476</v>
+      </c>
+      <c r="G15" s="3">
+        <v>16867660.899999999</v>
+      </c>
+      <c r="H15" s="18">
+        <f>G15/E15</f>
+        <v>6.6163226806795188E-3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2529877805.4299998</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>2546745466.3299999</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="1"/>
+        <v>150.9839142148038</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <f>C15*F15</f>
+        <v>67784884689.840004</v>
+      </c>
+      <c r="N15" s="18">
+        <f>E15/D15</f>
+        <v>0.18644102378044516</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.96375308065129695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12">
         <v>21.45</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D16" s="3">
         <v>21351919400.650002</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E16" s="3">
         <v>6283171611.2299995</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F16" s="3">
         <v>3299558284</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G16" s="3">
         <f>1259167.51+24207887.5</f>
         <v>25467055.010000002</v>
       </c>
-      <c r="G15" s="18">
+      <c r="H16" s="18">
+        <f>G16/E16</f>
+        <v>4.0532165259472433E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5861999287.2399998</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>5887466342.25</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="1"/>
+        <v>231.1797080556901</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <f>C16*F16</f>
+        <v>70775525191.800003</v>
+      </c>
+      <c r="N16" s="18">
+        <f>E16/D16</f>
+        <v>0.29426729716105643</v>
+      </c>
+      <c r="O16" s="18">
         <f t="shared" si="2"/>
-        <v>4.0532165259472433E-3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5861999287.2399998</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="3"/>
-        <v>5887466342.25</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="4"/>
-        <v>231.1797080556901</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="5"/>
-        <v>70775525191.800003</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="6"/>
-        <v>0.29426729716105643</v>
-      </c>
-      <c r="N15" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4169670697947119</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="1"/>
-        <v>1.0887760506785749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="18" t="e">
+        <v>0.91846252438851339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="12">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3096330515.8899999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1089832172.3699999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>978562728</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <f>G17/E17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>608374827.52999997</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>608374827.52999997</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <f>C17*F17</f>
+        <v>9785627280</v>
+      </c>
+      <c r="N17" s="18">
+        <f>E17/D17</f>
+        <v>0.35197540016387491</v>
+      </c>
+      <c r="O17" s="18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="18" t="e">
+        <v>0.89978978109908714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="12">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3">
+        <v>182369705049.35001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>127446102258.84</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6015730878</v>
+      </c>
+      <c r="G18" s="3">
+        <f>93317462.31+310546323.57</f>
+        <v>403863785.88</v>
+      </c>
+      <c r="H18" s="18">
+        <f>G18/E18</f>
+        <v>3.1688986851850696E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>18531190076.599998</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>18935053862.48</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="1"/>
+        <v>46.884753039249155</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f>C18*F18</f>
+        <v>198519118974</v>
+      </c>
+      <c r="N18" s="18">
+        <f>E18/D18</f>
+        <v>0.69883373570381413</v>
+      </c>
+      <c r="O18" s="18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="18" t="e">
+        <v>0.60901932489354738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="12">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3">
+        <v>170600711000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>101624015000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6458767000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>439607000</v>
+      </c>
+      <c r="H19" s="18">
+        <f>G19/E19</f>
+        <v>4.325818065739678E-3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>18914603000</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>19354210000</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="1"/>
+        <v>44.026164278548798</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <f>C19*F19</f>
+        <v>232515612000</v>
+      </c>
+      <c r="N19" s="18">
+        <f>E19/D19</f>
+        <v>0.59568342010016595</v>
+      </c>
+      <c r="O19" s="18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="18" t="e">
+        <v>0.69586362469962293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="12">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7632447445.4700003</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2368321448.2399998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>673416467</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <f>G20/E20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>290570545.68000001</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>290570545.68000001</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <f>C20*F20</f>
+        <v>19529077543</v>
+      </c>
+      <c r="N20" s="18">
+        <f>E20/D20</f>
+        <v>0.31029646324595955</v>
+      </c>
+      <c r="O20" s="18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.89184462277061127</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:O49">
-    <cfRule type="expression" dxfId="22" priority="2">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="top10" dxfId="49" priority="14" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:O1048576">
+    <cfRule type="expression" dxfId="48" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="top10" dxfId="21" priority="1" percent="1" bottom="1" rank="30"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="top10" dxfId="47" priority="6" percent="1" rank="30"/>
+    <cfRule type="top10" dxfId="46" priority="4" percent="1" bottom="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="top10" dxfId="42" priority="5" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="top10" dxfId="45" priority="3" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="top10" dxfId="44" priority="2" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="top10" dxfId="43" priority="1" percent="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2616,68 +2936,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1"/>
+    <col min="3" max="3" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="C1" s="38">
+    <row r="1" spans="1:13">
+      <c r="C1" s="36">
         <v>2016</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2693,30 +3025,38 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="18">
+        <f>E3/J3</f>
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <f>H3-E3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <f>G3/J3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f>J3-E3-G3</f>
         <v>21107000000</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>21107000000</v>
       </c>
-      <c r="I3" s="3">
-        <f>H3/D3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K17" si="0">J3/D3</f>
         <v>399511.65960024227</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <f>C3/D3</f>
         <v>1324481.3749242884</v>
       </c>
-      <c r="K3" s="13">
-        <f>C3/H3</f>
+      <c r="M3" s="13">
+        <f>C3/J3</f>
         <v>3.3152508646420618</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2732,30 +3072,38 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="18">
+        <f t="shared" ref="F4:F20" si="1">E4/J4</f>
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G16" si="0">H4-E4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H20" si="2">G4/J4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I18" si="3">J4-E4-G4</f>
         <v>19863000000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>19863000000</v>
       </c>
-      <c r="I4" s="3">
-        <f>H4/D4</f>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
         <v>353207.90952414821</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J19" si="1">C4/D4</f>
+      <c r="L4" s="3">
+        <f>C4/D4</f>
         <v>1136727.3632548545</v>
       </c>
-      <c r="K4" s="13">
-        <f t="shared" ref="K4:K19" si="2">C4/H4</f>
+      <c r="M4" s="13">
+        <f>C4/J4</f>
         <v>3.2182953229622915</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2771,30 +3119,38 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
         <v>31284000000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>31284000000</v>
       </c>
-      <c r="I5" s="3">
-        <f>H5/D5</f>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
         <v>443990.29250223527</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="1"/>
+      <c r="L5" s="3">
+        <f>C5/D5</f>
         <v>1120662.4941456977</v>
       </c>
-      <c r="K5" s="13">
-        <f t="shared" si="2"/>
+      <c r="M5" s="13">
+        <f>C5/J5</f>
         <v>2.5240698120444955</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2810,30 +3166,38 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
         <v>12896000000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>12896000000</v>
       </c>
-      <c r="I6" s="3">
-        <f>H6/D6</f>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
         <v>349627.2197370205</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="1"/>
+      <c r="L6" s="3">
+        <f>C6/D6</f>
         <v>811576.5216212552</v>
       </c>
-      <c r="K6" s="13">
-        <f t="shared" si="2"/>
+      <c r="M6" s="13">
+        <f>C6/J6</f>
         <v>2.3212624069478909</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2847,28 +3211,27 @@
         <v>461749</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="3">
-        <f>H7/D7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f>C7/D7</f>
         <v>786745.61287625961</v>
       </c>
-      <c r="K7" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -2882,32 +3245,40 @@
       <c r="E8" s="3">
         <v>1144846.05</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>5.0943025555425685E-4</v>
+      </c>
+      <c r="G8" s="3">
         <v>535267352.51999998</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
+      <c r="H8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.23818170502847444</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
         <v>1710894547.5799999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2247306746.1500001</v>
       </c>
-      <c r="I8" s="3">
-        <f>H8/D8</f>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
         <v>248926.31215662384</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
+      <c r="L8" s="3">
+        <f>C8/D8</f>
         <v>987716.0643409394</v>
       </c>
-      <c r="K8" s="13">
-        <f t="shared" si="2"/>
+      <c r="M8" s="13">
+        <f>C8/J8</f>
         <v>3.9679054246361503</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -2921,30 +3292,38 @@
       <c r="E9" s="3">
         <v>12203773.970000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>9.1239106150997881E-2</v>
+      </c>
+      <c r="G9" s="3">
         <v>36824819.299999997</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
+      <c r="H9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.27531348952901125</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
         <v>84727363.850000009</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>133755957.12</v>
       </c>
-      <c r="I9" s="3">
-        <f>H9/D9</f>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
         <v>151995.40581818181</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
+      <c r="L9" s="3">
+        <f>C9/D9</f>
         <v>4072032.2802613638</v>
       </c>
-      <c r="K9" s="13">
-        <f t="shared" si="2"/>
+      <c r="M9" s="13">
+        <f>C9/J9</f>
         <v>26.790495793881842</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2960,412 +3339,614 @@
       <c r="E10" s="3">
         <v>218792034.41</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>3.1986750546540238E-2</v>
+      </c>
+      <c r="G10" s="3">
         <v>704072924.90999997</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
+      <c r="H10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1029333863840145</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
         <v>5917218221.1100006</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6840083180.4300003</v>
       </c>
-      <c r="I10" s="3">
-        <f>H10/D10</f>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
         <v>95509.211226803702</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
+      <c r="L10" s="3">
+        <f>C10/D10</f>
         <v>174303.03968610807</v>
       </c>
-      <c r="K10" s="13">
+      <c r="M10" s="13">
+        <f>C10/J10</f>
+        <v>1.8249866944476625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6568410000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>193842</v>
+      </c>
+      <c r="E11" s="3">
+        <v>591820000</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>3.949777190173543E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1789765000</v>
+      </c>
+      <c r="H11" s="18">
         <f t="shared" si="2"/>
-        <v>1.8249866944476625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1053232847.41</v>
-      </c>
-      <c r="D11" s="3">
-        <v>16949</v>
-      </c>
-      <c r="E11" s="3">
-        <v>273472163.18000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>794418892.36000001</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>736896332.75999987</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1804787388.3</v>
+        <v>0.11944802427716114</v>
       </c>
       <c r="I11" s="3">
-        <f>H11/D11</f>
-        <v>106483.41426042834</v>
+        <f t="shared" si="3"/>
+        <v>12602045000</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>62141.297268865419</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="2"/>
-        <v>0.58357724252610232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>14983630000</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>77298.160357404486</v>
+      </c>
+      <c r="L11" s="3">
+        <f>C11/D11</f>
+        <v>33885.380877209274</v>
+      </c>
+      <c r="M11" s="13">
+        <f>C11/J11</f>
+        <v>0.43837241042390929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1053232847.41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16949</v>
+      </c>
+      <c r="E12" s="3">
+        <v>273472163.18000001</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="1"/>
+        <v>0.1515259719526266</v>
+      </c>
+      <c r="G12" s="3">
+        <v>794418892.36000001</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.44017311818002802</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
+        <v>736896332.75999987</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1804787388.3</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>106483.41426042834</v>
+      </c>
+      <c r="L12" s="3">
+        <f>C12/D12</f>
+        <v>62141.297268865419</v>
+      </c>
+      <c r="M12" s="13">
+        <f>C12/J12</f>
+        <v>0.58357724252610232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>3013184683.6500001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>12653</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <v>86211163.670000002</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
+      <c r="H13" s="18">
+        <f t="shared" si="2"/>
+        <v>6.5998778219549206E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="3"/>
         <v>1220042770.05</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J13" s="3">
         <v>1306253933.72</v>
       </c>
-      <c r="I12" s="3">
-        <f>H12/D12</f>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
         <v>103236.69751995575</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
+      <c r="L13" s="3">
+        <f>C13/D13</f>
         <v>238139.9418043152</v>
       </c>
-      <c r="K12" s="13">
+      <c r="M13" s="13">
+        <f>C13/J13</f>
+        <v>2.3067373087780392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1337618840</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4627</v>
+      </c>
+      <c r="E14" s="3">
+        <v>258845366</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="1"/>
+        <v>0.59419824865280901</v>
+      </c>
+      <c r="G14" s="3">
+        <v>98464931</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="2"/>
-        <v>2.3067373087780392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+        <v>0.22603336678594307</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>78310923</v>
+      </c>
+      <c r="J14" s="3">
+        <v>435621220</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>94147.659390533823</v>
+      </c>
+      <c r="L14" s="3">
+        <f>C14/D14</f>
+        <v>289089.87248757295</v>
+      </c>
+      <c r="M14" s="13">
+        <f>C14/J14</f>
+        <v>3.0706007388712608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2529877805.4299998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2009</v>
+      </c>
+      <c r="E15" s="3">
+        <v>64480618.369999997</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="1"/>
+        <v>0.22057075132504869</v>
+      </c>
+      <c r="G15" s="3">
+        <v>187464663.09</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.64126589710089388</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>40390025.840000004</v>
+      </c>
+      <c r="J15" s="3">
+        <v>292335307.30000001</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>145512.84584370334</v>
+      </c>
+      <c r="L15" s="3">
+        <f>C15/D15</f>
+        <v>1259272.1779143852</v>
+      </c>
+      <c r="M15" s="13">
+        <f>C15/J15</f>
+        <v>8.6540275575874634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5861999287.2399998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50431</v>
+      </c>
+      <c r="E16" s="3">
+        <v>770971885.67999995</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="1"/>
+        <v>0.22181995847961247</v>
+      </c>
+      <c r="G16" s="3">
+        <v>482653948.47000003</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1388666445537208</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>2222039254.6199999</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3475665088.77</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>68919.218115246578</v>
+      </c>
+      <c r="L16" s="3">
+        <f>C16/D16</f>
+        <v>116238.014063572</v>
+      </c>
+      <c r="M16" s="13">
+        <f>C16/J16</f>
+        <v>1.6865834703637965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3">
+        <v>608374827.52999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1524</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>162557704.40000001</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>106665.16036745407</v>
+      </c>
+      <c r="L17" s="3">
+        <f>C17/D17</f>
+        <v>399196.08105643041</v>
+      </c>
+      <c r="M17" s="13">
+        <f>C17/J17</f>
+        <v>3.7425161100515636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18531190076.599998</v>
+      </c>
+      <c r="D18" s="3">
+        <v>71610</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>5756088826.04</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5756088826.04</v>
+      </c>
+      <c r="K18" s="3">
+        <f>J18/D18</f>
+        <v>80381.075632453561</v>
+      </c>
+      <c r="L18" s="3">
+        <f>C18/D18</f>
+        <v>258779.3614942047</v>
+      </c>
+      <c r="M18" s="13">
+        <f>C18/J18</f>
+        <v>3.2194065513316357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18914603000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>96418</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f>J19-E19-G19</f>
+        <v>10675182000</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10675182000</v>
+      </c>
+      <c r="K19" s="3">
+        <f>J19/D19</f>
+        <v>110717.72905474082</v>
+      </c>
+      <c r="L19" s="3">
+        <f>C19/D19</f>
+        <v>196172.9448858097</v>
+      </c>
+      <c r="M19" s="13">
+        <f>C19/J19</f>
+        <v>1.7718295575663254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1337618840</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4627</v>
-      </c>
-      <c r="E13" s="3">
-        <v>258845366</v>
-      </c>
-      <c r="F13" s="3">
-        <v>98464931</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>78310923</v>
-      </c>
-      <c r="H13" s="3">
-        <v>435621220</v>
-      </c>
-      <c r="I13" s="3">
-        <f>H13/D13</f>
-        <v>94147.659390533823</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>289089.87248757295</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3">
+        <v>290570545.68000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2276</v>
+      </c>
+      <c r="E20" s="3">
+        <v>262277274.09</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.42568021640151005</v>
+      </c>
+      <c r="G20" s="3">
+        <v>353859591.06</v>
+      </c>
+      <c r="H20" s="18">
         <f t="shared" si="2"/>
-        <v>3.0706007388712608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2529877805.4299998</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E14" s="3">
-        <v>64480618.369999997</v>
-      </c>
-      <c r="F14" s="3">
-        <v>187464663.09</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>40390025.840000004</v>
-      </c>
-      <c r="H14" s="3">
-        <v>292335307.30000001</v>
-      </c>
-      <c r="I14" s="3">
-        <f>H14/D14</f>
-        <v>145512.84584370334</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>1259272.1779143852</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="2"/>
-        <v>8.6540275575874634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5861999287.2399998</v>
-      </c>
-      <c r="D15" s="3">
-        <v>50431</v>
-      </c>
-      <c r="E15" s="3">
-        <v>770971885.67999995</v>
-      </c>
-      <c r="F15" s="3">
-        <v>482653948.47000003</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>2222039254.6199999</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3475665088.77</v>
-      </c>
-      <c r="I15" s="3">
-        <f>H15/D15</f>
-        <v>68919.218115246578</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>116238.014063572</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" si="2"/>
-        <v>1.6865834703637965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="3">
-        <v>18531190076.599998</v>
-      </c>
-      <c r="D16" s="3">
-        <v>71610</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>5756088826.04</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5756088826.04</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" ref="I16:I19" si="3">H16/D16</f>
-        <v>80381.075632453561</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>258779.3614942047</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="shared" si="2"/>
-        <v>3.2194065513316357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="3">
-        <v>18914603000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>96418</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <f>H17-E17-F17</f>
-        <v>10675182000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10675182000</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="3"/>
-        <v>110717.72905474082</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>196172.9448858097</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="shared" si="2"/>
-        <v>1.7718295575663254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0.57431978359849001</v>
+      </c>
+      <c r="J20" s="3">
+        <f>262277274.09+353859591.06</f>
+        <v>616136865.14999998</v>
+      </c>
+      <c r="K20" s="3">
+        <f>J20/D20</f>
+        <v>270710.39769332163</v>
+      </c>
+      <c r="L20" s="3">
+        <f>C20/D20</f>
+        <v>127667.19933216169</v>
+      </c>
+      <c r="M20" s="13">
+        <f>C20/J20</f>
+        <v>0.4716006493285545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="3"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="C28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="C29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="C30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="J31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="expression" dxfId="20" priority="6">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A1:M1048576">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="19" priority="4" percent="1" rank="30"/>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="top10" dxfId="15" priority="8" percent="1" rank="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="top10" dxfId="18" priority="3" percent="1" rank="30"/>
+  <conditionalFormatting sqref="K1:L1048576">
+    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J19">
-    <cfRule type="top10" dxfId="17" priority="2" percent="1" rank="30"/>
+  <conditionalFormatting sqref="L2:L21">
+    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J19">
-    <cfRule type="top10" dxfId="16" priority="1" percent="1" rank="30"/>
+  <conditionalFormatting sqref="L3:L21">
+    <cfRule type="top10" dxfId="12" priority="5" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3374,62 +3955,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1"/>
+    <col min="3" max="3" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="38">
+      <c r="C1" s="36">
         <v>2016</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="44">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36">
         <v>2015</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" ht="27">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3450,7 +4033,7 @@
         <v>2.4956107348883871E-2</v>
       </c>
       <c r="F3" s="3">
-        <f>C3+D3</f>
+        <f t="shared" ref="F3:F20" si="0">C3+D3</f>
         <v>71766000000</v>
       </c>
       <c r="G3" s="3"/>
@@ -3478,21 +4061,21 @@
         <v>1422000000</v>
       </c>
       <c r="E4" s="18">
-        <f t="shared" ref="E4:E24" si="0">D4/F4</f>
+        <f t="shared" ref="E4:E20" si="1">D4/F4</f>
         <v>2.1760754127963029E-2</v>
       </c>
       <c r="F4" s="3">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
         <v>65347000000</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="18" t="e">
-        <f t="shared" ref="I4:I27" si="1">H4/J4</f>
+        <f t="shared" ref="I4:I28" si="2">H4/J4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J27" si="2">G4+H4</f>
+        <f t="shared" ref="J4:J28" si="3">G4+H4</f>
         <v>0</v>
       </c>
     </row>
@@ -3511,21 +4094,21 @@
         <v>3567000000</v>
       </c>
       <c r="E5" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3220647037440933E-2</v>
       </c>
       <c r="F5" s="3">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
         <v>82530000000</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3543,21 +4126,21 @@
         <v>848000000</v>
       </c>
       <c r="E6" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7547672416593574E-2</v>
       </c>
       <c r="F6" s="3">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
         <v>30783000000</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3576,27 +4159,27 @@
         <v>3853000000</v>
       </c>
       <c r="E7" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0494862883104715E-2</v>
       </c>
       <c r="F7" s="3">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
         <v>367132000000</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -3612,23 +4195,23 @@
         <v>0.39390806364503106</v>
       </c>
       <c r="F8" s="3">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>14712455477.460001</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -3640,21 +4223,21 @@
         <v>206832434.94999999</v>
       </c>
       <c r="E9" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4570022063352742E-2</v>
       </c>
       <c r="F9" s="3">
-        <f>C9+D9</f>
+        <f t="shared" si="0"/>
         <v>3790220841.5799999</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3672,21 +4255,21 @@
         <v>2468587771.9200001</v>
       </c>
       <c r="E10" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16510472147391511</v>
       </c>
       <c r="F10" s="3">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>14951648565.120001</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3695,7 +4278,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3">
         <v>6568410000</v>
@@ -3704,11 +4287,11 @@
         <v>5308825000</v>
       </c>
       <c r="E11" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44697482200192218</v>
       </c>
       <c r="F11" s="3">
-        <f>C11+D11</f>
+        <f t="shared" si="0"/>
         <v>11877235000</v>
       </c>
       <c r="G11" s="3">
@@ -3718,11 +4301,11 @@
         <v>4485620000</v>
       </c>
       <c r="I11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54170189959527115</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8280606000</v>
       </c>
     </row>
@@ -3740,11 +4323,11 @@
         <v>489862083.69</v>
       </c>
       <c r="E12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31745427570084772</v>
       </c>
       <c r="F12" s="3">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>1543094931.0999999</v>
       </c>
       <c r="G12" s="3">
@@ -3754,11 +4337,11 @@
         <v>453570487.77999997</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3658484266809317</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1239777062.5799999</v>
       </c>
     </row>
@@ -3776,27 +4359,27 @@
         <v>502819788.72000003</v>
       </c>
       <c r="E13" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14300885925240847</v>
       </c>
       <c r="F13" s="3">
-        <f>C13+D13</f>
+        <f t="shared" si="0"/>
         <v>3516004472.3699999</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -3808,11 +4391,11 @@
         <v>197779010</v>
       </c>
       <c r="E14" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12881287413552128</v>
       </c>
       <c r="F14" s="3">
-        <f>C14+D14</f>
+        <f t="shared" si="0"/>
         <v>1535397850</v>
       </c>
       <c r="G14" s="3">
@@ -3822,20 +4405,20 @@
         <v>163322504</v>
       </c>
       <c r="I14" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10526868191564992</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1551482369</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>2529877805.4299998</v>
@@ -3844,30 +4427,30 @@
         <v>149634792.63999999</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5844034003713579E-2</v>
       </c>
       <c r="F15" s="3">
-        <f>C15+D15</f>
+        <f t="shared" si="0"/>
         <v>2679512598.0699997</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3">
         <v>5861999287.2399998</v>
@@ -3876,134 +4459,144 @@
         <v>870560623.45000005</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12930603440568253</v>
       </c>
       <c r="F16" s="3">
-        <f>C16+D16</f>
+        <f t="shared" si="0"/>
         <v>6732559910.6899996</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3">
-        <v>18531190076.599998</v>
+        <v>608374827.52999997</v>
       </c>
       <c r="D17" s="3">
-        <v>1713551686.1300001</v>
+        <v>22740985.039999999</v>
       </c>
       <c r="E17" s="18">
-        <f t="shared" si="0"/>
-        <v>8.4641814956839839E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.6032982516149038E-2</v>
       </c>
       <c r="F17" s="3">
-        <f>C17+D17</f>
-        <v>20244741762.73</v>
+        <f t="shared" si="0"/>
+        <v>631115812.56999993</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
-        <v>18914603000</v>
+        <v>18531190076.599998</v>
       </c>
       <c r="D18" s="3">
-        <f>(2898537+8521)*1000</f>
-        <v>2907058000</v>
+        <v>1713551686.1300001</v>
       </c>
       <c r="E18" s="18">
-        <f t="shared" si="0"/>
-        <v>0.13321891491211416</v>
+        <f t="shared" si="1"/>
+        <v>8.4641814956839839E-2</v>
       </c>
       <c r="F18" s="3">
-        <f>C18+D18</f>
-        <v>21821661000</v>
+        <f t="shared" si="0"/>
+        <v>20244741762.73</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" s="3">
-        <v>290570545.68000001</v>
+        <v>18914603000</v>
       </c>
       <c r="D19" s="3">
-        <v>38368034.710000001</v>
+        <f>(2898537+8521)*1000</f>
+        <v>2907058000</v>
       </c>
       <c r="E19" s="18">
-        <f t="shared" si="0"/>
-        <v>0.11664194167953679</v>
+        <f t="shared" si="1"/>
+        <v>0.13321891491211416</v>
       </c>
       <c r="F19" s="3">
-        <f>C19+D19</f>
-        <v>328938580.38999999</v>
+        <f t="shared" si="0"/>
+        <v>21821661000</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3">
+        <v>290570545.68000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>38368034.710000001</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.11664194167953679</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>328938580.38999999</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4015,11 +4608,11 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4031,11 +4624,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4047,11 +4640,11 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4063,24 +4656,27 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4089,129 +4685,142 @@
       <c r="F26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="C28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="C29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
+      <c r="C30" s="3"/>
       <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="J31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="122" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="14" priority="8" percent="1" rank="30"/>
+    <cfRule type="top10" dxfId="121" priority="8" percent="1" rank="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J2">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="120" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="top10" dxfId="12" priority="6" percent="1" rank="30"/>
+    <cfRule type="top10" dxfId="119" priority="6" percent="1" rank="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G24">
-    <cfRule type="expression" dxfId="9" priority="5">
+  <conditionalFormatting sqref="G3:G25">
+    <cfRule type="expression" dxfId="118" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J30">
-    <cfRule type="expression" dxfId="7" priority="4">
+  <conditionalFormatting sqref="J3:J31">
+    <cfRule type="expression" dxfId="117" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I28">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="I3:I29">
+    <cfRule type="expression" dxfId="116" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I28">
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="30"/>
+  <conditionalFormatting sqref="I3:I29">
+    <cfRule type="top10" dxfId="115" priority="2" percent="1" rank="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H28">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1:J1048576">
+    <cfRule type="expression" dxfId="114" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2"/>
+    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2"/>
+    <col min="6" max="6" width="17.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="C1" s="39">
+      <c r="C1" s="37">
         <v>2016</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" s="34" customFormat="1" ht="30">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" s="33" customFormat="1" ht="27">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>85</v>
+      <c r="F2" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4250,11 +4859,11 @@
         <v>7170000000</v>
       </c>
       <c r="E4" s="18">
-        <f t="shared" ref="E4:E19" si="0">D4/F4</f>
+        <f t="shared" ref="E4:E20" si="0">D4/F4</f>
         <v>0.30576996886860847</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F19" si="1">C4+D4</f>
+        <f t="shared" ref="F4:F20" si="1">C4+D4</f>
         <v>23449000000</v>
       </c>
     </row>
@@ -4326,7 +4935,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -4348,7 +4957,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -4395,7 +5004,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3">
         <v>37483211000</v>
@@ -4458,7 +5067,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -4480,10 +5089,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>1178787713.6300001</v>
@@ -4502,10 +5111,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3">
         <v>11574188890.190001</v>
@@ -4524,66 +5133,88 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3">
-        <v>17681655478.060001</v>
+        <v>268977553.57999998</v>
       </c>
       <c r="D17" s="3">
-        <v>581543756.84000003</v>
+        <v>19537124.43</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" si="0"/>
-        <v>3.1842381466698391E-2</v>
+        <v>6.7716223537586662E-2</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>18263199234.900002</v>
+        <v>288514678.00999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
-        <v>21056791000</v>
+        <v>17681655478.060001</v>
       </c>
       <c r="D18" s="3">
-        <v>580729000</v>
+        <v>581543756.84000003</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="0"/>
-        <v>2.6838981546868586E-2</v>
+        <v>3.1842381466698391E-2</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>21637520000</v>
+        <v>18263199234.900002</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" s="3">
+        <v>21056791000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>580729000</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="0"/>
+        <v>2.6838981546868586E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>21637520000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3">
         <v>206527861.86000001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>584874097.07000005</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>0.73903544269813015</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
         <v>791401958.93000007</v>
       </c>
@@ -4592,67 +5223,70 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:F1048576 A1:C1">
-    <cfRule type="expression" dxfId="11" priority="2">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C1 A2:F1048576">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="top10" dxfId="10" priority="1" percent="1" rank="30"/>
+    <cfRule type="top10" dxfId="30" priority="2" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="29" priority="1" percent="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="1"/>
-    <col min="12" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.125" style="1"/>
+    <col min="12" max="13" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:20" ht="20.25">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
@@ -4716,29 +5350,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="34" customFormat="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:20" s="33" customFormat="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
@@ -5313,7 +5947,7 @@
     <row r="14" spans="1:20">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
@@ -6376,53 +7010,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21">
+    <row r="1" spans="1:23" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
@@ -6474,13 +7096,13 @@
       <c r="R2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="16"/>
@@ -6488,24 +7110,24 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="38" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
       <c r="R3" s="20"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
@@ -6513,7 +7135,7 @@
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="1:23" ht="45">
+    <row r="4" spans="1:23" ht="40.5">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -8581,6 +9203,5 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>